--- a/backend/database/companyA/fna.xlsx
+++ b/backend/database/companyA/fna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\vscode\python-1\hw_12\ai-chatbot\backend\database\companyA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB91F0-461D-41FC-B8CE-A9F96CF453D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF2A49-3C7C-4BF7-89F7-4CCB2231190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="4620" windowWidth="19935" windowHeight="15495" xr2:uid="{ECBC8941-70F1-462A-AD16-96143897268F}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{ECBC8941-70F1-462A-AD16-96143897268F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,40 +165,68 @@
     <t>사용량 제한은 이용하시는 플랜에 따라 다릅니다. 사용량에 따라 최적화된 플랜을 안내받으실 수 있으며, 언제든 플랜을 조정할 수 있습니다.</t>
   </si>
   <si>
+    <t>전혀 문제 없습니다. 리액터AI는 초보자도 간편하게 관리할 수 있도록 직관적인 관리 환경과 손쉬운 설정 메뉴를 제공합니다.</t>
+  </si>
+  <si>
+    <t>챗봇을 업데이트하거나 관리할 때 별도의 비용이 드나요?</t>
+  </si>
+  <si>
+    <t>기본적인 기능 업데이트는 무료로 제공되며, 특별히 추가적인 기능이나 맞춤 개발이 필요한 경우에만 별도 비용이 발생할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>다른 플랫폼으로 확장하고 싶은데 추가 비용이 있나요?</t>
+  </si>
+  <si>
+    <t>지원되는 플랫폼 간 연동 및 확장은 기본적으로 무료로 제공됩니다. 다만 특별한 맞춤형 연동이 필요한 경우에는 별도 문의가 필요할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>고객 응대가 아니라 내부 직원용 챗봇으로 사용 가능한가요?</t>
+  </si>
+  <si>
+    <t>네, 가능합니다. 리액터AI는 내부 업무 매뉴얼 제공, 직원 교육, FAQ 응답 자동화 등 내부 업무용 챗봇으로도 폭넓게 활용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>챗봇을 이용한 마케팅 사례가 있나요?</t>
+  </si>
+  <si>
+    <t>챗봇을 통한 개인화된 정보 제공 및 맞춤형 마케팅 전략을 통해 고객 참여도를 높이고, 고객 전환율 및 재방문율을 향상시킨 실제 사례가 많이 있습니다.</t>
+  </si>
+  <si>
+    <t>리액터AI는 다양한 분야의 기업에서 활용 중입니다. 보다 구체적인 사례는 별도의 문의를 주시면 상세하게 안내드리겠습니다.</t>
+  </si>
+  <si>
+    <t>그림생성도 되나요?</t>
+  </si>
+  <si>
+    <t>네, 그림생성도 가능합니다! 원하는 그림을 말씀해주세요!</t>
+  </si>
+  <si>
+    <t>그림 그려줄 수 있어?</t>
+  </si>
+  <si>
+    <t>네, 원하는 그림을 말씀하시면 생성해 드리겠습니다!</t>
+  </si>
+  <si>
+    <t>이미지 만들어줄 수 있어?</t>
+  </si>
+  <si>
+    <t>물론이죠! 원하는 이미지 내용을 자세히 알려주세요.</t>
+  </si>
+  <si>
     <t>챗봇에 대한 지식이 없는데 운영이 가능할까요?</t>
-  </si>
-  <si>
-    <t>전혀 문제 없습니다. 리액터AI는 초보자도 간편하게 관리할 수 있도록 직관적인 관리 환경과 손쉬운 설정 메뉴를 제공합니다.</t>
-  </si>
-  <si>
-    <t>챗봇을 업데이트하거나 관리할 때 별도의 비용이 드나요?</t>
-  </si>
-  <si>
-    <t>기본적인 기능 업데이트는 무료로 제공되며, 특별히 추가적인 기능이나 맞춤 개발이 필요한 경우에만 별도 비용이 발생할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>다른 플랫폼으로 확장하고 싶은데 추가 비용이 있나요?</t>
-  </si>
-  <si>
-    <t>지원되는 플랫폼 간 연동 및 확장은 기본적으로 무료로 제공됩니다. 다만 특별한 맞춤형 연동이 필요한 경우에는 별도 문의가 필요할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>고객 응대가 아니라 내부 직원용 챗봇으로 사용 가능한가요?</t>
-  </si>
-  <si>
-    <t>네, 가능합니다. 리액터AI는 내부 업무 매뉴얼 제공, 직원 교육, FAQ 응답 자동화 등 내부 업무용 챗봇으로도 폭넓게 활용할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>챗봇을 이용한 마케팅 사례가 있나요?</t>
-  </si>
-  <si>
-    <t>챗봇을 통한 개인화된 정보 제공 및 맞춤형 마케팅 전략을 통해 고객 참여도를 높이고, 고객 전환율 및 재방문율을 향상시킨 실제 사례가 많이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 챗봇의 이름은 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액터AI입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>리액터AI를 사용 중인 주요 고객사는 어디인가요?</t>
-  </si>
-  <si>
-    <t>리액터AI는 다양한 분야의 기업에서 활용 중입니다. 보다 구체적인 사례는 별도의 문의를 주시면 상세하게 안내드리겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541964B-C3DC-4CE6-9029-40D3B2B0F722}">
-  <dimension ref="D4:E27"/>
+  <dimension ref="D1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,196 +625,228 @@
     <col min="5" max="5" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5" ht="165" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="132" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" ht="165" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="132" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="66" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" ht="66" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="66" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database/companyA/fna.xlsx
+++ b/backend/database/companyA/fna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\vscode\python-1\hw_12\ai-chatbot\backend\database\companyA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF2A49-3C7C-4BF7-89F7-4CCB2231190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF0F8EA-7F1F-499E-B7DA-2D21C9B59D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{ECBC8941-70F1-462A-AD16-96143897268F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>리액터AI를 사용 중인 주요 고객사는 어디인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림그려주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네, 알겠습니다. 띄어쓰기를 정확히 해서 원하는 그림을 그려달라고 입력해주세요. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541964B-C3DC-4CE6-9029-40D3B2B0F722}">
-  <dimension ref="D1:E28"/>
+  <dimension ref="D1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -849,6 +857,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="29" spans="4:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/database/companyA/fna.xlsx
+++ b/backend/database/companyA/fna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\vscode\python-1\hw_12\ai-chatbot\backend\database\companyA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF0F8EA-7F1F-499E-B7DA-2D21C9B59D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E94A6-9F6A-4D6D-97EB-EE2337469440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{ECBC8941-70F1-462A-AD16-96143897268F}"/>
   </bookViews>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541964B-C3DC-4CE6-9029-40D3B2B0F722}">
   <dimension ref="D1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
